--- a/Builds/modules/templates/jh_sf1.xlsx
+++ b/Builds/modules/templates/jh_sf1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\CBNHS-System\Project Files\Forms System Final\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD021ABE-E591-4A86-B045-86DAD36BF482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19552C07-68C1-4822-9B70-6A4004DA290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10 Pupils (0)" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="68">
   <si>
     <t>LRN</t>
   </si>
@@ -343,6 +343,9 @@
       <t xml:space="preserve">
 (last name, first name, middle name,extention)</t>
     </r>
+  </si>
+  <si>
+    <t>List and Code of Indicators under REMARKS column</t>
   </si>
 </sst>
 </file>
@@ -761,29 +764,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -799,6 +853,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,80 +917,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1766,8 +1769,8 @@
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,89 +1796,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="O3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="27"/>
       <c r="L4" s="28" t="s">
         <v>62</v>
@@ -1884,51 +1887,51 @@
       <c r="N4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61" t="s">
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="60" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1936,14 +1939,14 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="60"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1968,7 +1971,7 @@
       <c r="P6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2174,11 +2177,11 @@
       <c r="R16" s="19"/>
     </row>
     <row r="18" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
+      <c r="B18" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,20 +2191,20 @@
       <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="7" t="s">
         <v>51</v>
       </c>
@@ -2225,31 +2228,31 @@
       <c r="B20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
       <c r="K20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="77"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="39"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
     </row>
     <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -2258,34 +2261,34 @@
       <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="80" t="s">
+      <c r="H21" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
       <c r="K21" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="83" t="s">
+      <c r="N21" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="84"/>
-      <c r="Q21" s="85" t="s">
+      <c r="O21" s="46"/>
+      <c r="Q21" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
     </row>
     <row r="22" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -2294,25 +2297,25 @@
       <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="86" t="s">
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
       <c r="N22" s="14" t="s">
         <v>60</v>
       </c>
@@ -2322,10 +2325,10 @@
       <c r="Q22" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R22" s="73" t="s">
+      <c r="R22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="S22" s="73"/>
+      <c r="S22" s="35"/>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
@@ -2334,45 +2337,33 @@
       <c r="B23" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -2388,13 +2379,25 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2436,89 +2439,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="O3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="27"/>
       <c r="L4" s="28" t="s">
         <v>62</v>
@@ -2527,51 +2530,51 @@
       <c r="N4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61" t="s">
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="60" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -2579,14 +2582,14 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="60"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
@@ -2611,7 +2614,7 @@
       <c r="P6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="4" t="s">
         <v>22</v>
       </c>
@@ -3031,20 +3034,20 @@
       <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="7" t="s">
         <v>51</v>
       </c>
@@ -3068,31 +3071,31 @@
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
       <c r="K30" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="13"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="77"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="39"/>
       <c r="P30" s="12"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
     </row>
     <row r="31" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -3101,34 +3104,34 @@
       <c r="B31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="H31" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="81"/>
-      <c r="J31" s="82"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
       <c r="K31" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="83" t="s">
+      <c r="N31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="O31" s="84"/>
-      <c r="Q31" s="85" t="s">
+      <c r="O31" s="46"/>
+      <c r="Q31" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
     </row>
     <row r="32" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -3137,25 +3140,25 @@
       <c r="B32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="81"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="86" t="s">
+      <c r="I32" s="43"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
       <c r="N32" s="14" t="s">
         <v>60</v>
       </c>
@@ -3165,10 +3168,10 @@
       <c r="Q32" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R32" s="73" t="s">
+      <c r="R32" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="S32" s="73"/>
+      <c r="S32" s="35"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -3177,45 +3180,33 @@
       <c r="B33" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="74" t="s">
+      <c r="H33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -3231,13 +3222,25 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N30:O30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3279,89 +3282,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="O3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="29"/>
       <c r="L4" s="30" t="s">
         <v>62</v>
@@ -3370,51 +3373,51 @@
       <c r="N4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61" t="s">
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="60" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -3422,14 +3425,14 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="60"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
@@ -3454,7 +3457,7 @@
       <c r="P6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="4" t="s">
         <v>22</v>
       </c>
@@ -4074,20 +4077,20 @@
       <c r="B39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="69"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="67" t="s">
+      <c r="H39" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="68"/>
-      <c r="J39" s="69"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="56"/>
       <c r="K39" s="7" t="s">
         <v>51</v>
       </c>
@@ -4111,31 +4114,31 @@
       <c r="B40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="71"/>
-      <c r="J40" s="72"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="59"/>
       <c r="K40" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="13"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="77"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="39"/>
       <c r="P40" s="12"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="77"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
     </row>
     <row r="41" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
@@ -4144,34 +4147,34 @@
       <c r="B41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="80" t="s">
+      <c r="H41" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="81"/>
-      <c r="J41" s="82"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="83" t="s">
+      <c r="N41" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="84"/>
-      <c r="Q41" s="85" t="s">
+      <c r="O41" s="46"/>
+      <c r="Q41" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
     </row>
     <row r="42" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4180,25 +4183,25 @@
       <c r="B42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="80" t="s">
+      <c r="H42" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="81"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="86" t="s">
+      <c r="I42" s="43"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
       <c r="N42" s="14" t="s">
         <v>60</v>
       </c>
@@ -4208,10 +4211,10 @@
       <c r="Q42" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R42" s="73" t="s">
+      <c r="R42" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="S42" s="73"/>
+      <c r="S42" s="35"/>
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
@@ -4220,33 +4223,45 @@
       <c r="B43" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="74" t="s">
+      <c r="H43" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I43" s="75"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -4262,25 +4277,13 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4322,89 +4325,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="O3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="29"/>
       <c r="L4" s="30" t="s">
         <v>62</v>
@@ -4413,51 +4416,51 @@
       <c r="N4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61" t="s">
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="60" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -4465,14 +4468,14 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="60"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
@@ -4497,7 +4500,7 @@
       <c r="P6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="4" t="s">
         <v>22</v>
       </c>
@@ -5317,20 +5320,20 @@
       <c r="B49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="69"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="67" t="s">
+      <c r="H49" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="68"/>
-      <c r="J49" s="69"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="56"/>
       <c r="K49" s="7" t="s">
         <v>51</v>
       </c>
@@ -5354,31 +5357,31 @@
       <c r="B50" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="70" t="s">
+      <c r="H50" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I50" s="71"/>
-      <c r="J50" s="72"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="59"/>
       <c r="K50" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="13"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="77"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="39"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="77"/>
-      <c r="S50" s="77"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
     </row>
     <row r="51" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
@@ -5387,34 +5390,34 @@
       <c r="B51" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
       <c r="G51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="80" t="s">
+      <c r="H51" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I51" s="81"/>
-      <c r="J51" s="82"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="44"/>
       <c r="K51" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="83" t="s">
+      <c r="N51" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="O51" s="84"/>
-      <c r="Q51" s="85" t="s">
+      <c r="O51" s="46"/>
+      <c r="Q51" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R51" s="85"/>
-      <c r="S51" s="85"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
     </row>
     <row r="52" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -5423,25 +5426,25 @@
       <c r="B52" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="80" t="s">
+      <c r="C52" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
       <c r="G52" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="80" t="s">
+      <c r="H52" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="81"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="86" t="s">
+      <c r="I52" s="43"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
       <c r="N52" s="14" t="s">
         <v>60</v>
       </c>
@@ -5451,10 +5454,10 @@
       <c r="Q52" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R52" s="73" t="s">
+      <c r="R52" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="S52" s="73"/>
+      <c r="S52" s="35"/>
     </row>
     <row r="53" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
@@ -5463,33 +5466,45 @@
       <c r="B53" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
       <c r="G53" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H53" s="74" t="s">
+      <c r="H53" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I53" s="75"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:J50"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -5505,25 +5520,13 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -5565,89 +5568,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="O3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="29"/>
       <c r="L4" s="30" t="s">
         <v>62</v>
@@ -5656,51 +5659,51 @@
       <c r="N4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61" t="s">
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="60" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -5708,14 +5711,14 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="60"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
@@ -5740,7 +5743,7 @@
       <c r="P6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="4" t="s">
         <v>22</v>
       </c>
@@ -6760,20 +6763,20 @@
       <c r="B59" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="69"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="56"/>
       <c r="G59" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="67" t="s">
+      <c r="H59" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="68"/>
-      <c r="J59" s="69"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="7" t="s">
         <v>51</v>
       </c>
@@ -6797,31 +6800,31 @@
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="70" t="s">
+      <c r="H60" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I60" s="71"/>
-      <c r="J60" s="72"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="59"/>
       <c r="K60" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="13"/>
-      <c r="N60" s="90"/>
-      <c r="O60" s="77"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="39"/>
       <c r="P60" s="12"/>
-      <c r="Q60" s="77"/>
-      <c r="R60" s="77"/>
-      <c r="S60" s="77"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
     </row>
     <row r="61" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
@@ -6830,34 +6833,34 @@
       <c r="B61" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
       <c r="G61" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H61" s="80" t="s">
+      <c r="H61" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I61" s="81"/>
-      <c r="J61" s="82"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="44"/>
       <c r="K61" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
-      <c r="N61" s="83" t="s">
+      <c r="N61" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="O61" s="84"/>
-      <c r="Q61" s="85" t="s">
+      <c r="O61" s="46"/>
+      <c r="Q61" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="85"/>
-      <c r="S61" s="85"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
     </row>
     <row r="62" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
@@ -6866,25 +6869,25 @@
       <c r="B62" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="80" t="s">
+      <c r="C62" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
       <c r="G62" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="80" t="s">
+      <c r="H62" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I62" s="81"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="86" t="s">
+      <c r="I62" s="43"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
       <c r="N62" s="14" t="s">
         <v>60</v>
       </c>
@@ -6894,10 +6897,10 @@
       <c r="Q62" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R62" s="73" t="s">
+      <c r="R62" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="S62" s="73"/>
+      <c r="S62" s="35"/>
     </row>
     <row r="63" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
@@ -6906,33 +6909,45 @@
       <c r="B63" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="74" t="s">
+      <c r="C63" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
       <c r="G63" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H63" s="74" t="s">
+      <c r="H63" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I63" s="75"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="89"/>
-      <c r="M63" s="89"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -6948,25 +6963,13 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7008,89 +7011,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="O3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="29"/>
       <c r="L4" s="30" t="s">
         <v>62</v>
@@ -7099,51 +7102,51 @@
       <c r="N4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61" t="s">
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="60" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -7151,14 +7154,14 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="60"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
@@ -7183,7 +7186,7 @@
       <c r="P6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="4" t="s">
         <v>22</v>
       </c>
@@ -8403,20 +8406,20 @@
       <c r="B69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="67" t="s">
+      <c r="C69" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="69"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="56"/>
       <c r="G69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H69" s="67" t="s">
+      <c r="H69" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I69" s="68"/>
-      <c r="J69" s="69"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="7" t="s">
         <v>51</v>
       </c>
@@ -8440,31 +8443,31 @@
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="70" t="s">
+      <c r="C70" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H70" s="70" t="s">
+      <c r="H70" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I70" s="71"/>
-      <c r="J70" s="72"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="59"/>
       <c r="K70" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="13"/>
-      <c r="N70" s="90"/>
-      <c r="O70" s="77"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="39"/>
       <c r="P70" s="12"/>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="77"/>
-      <c r="S70" s="77"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
     </row>
     <row r="71" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
@@ -8473,34 +8476,34 @@
       <c r="B71" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
       <c r="G71" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H71" s="80" t="s">
+      <c r="H71" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I71" s="81"/>
-      <c r="J71" s="82"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="44"/>
       <c r="K71" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
-      <c r="N71" s="83" t="s">
+      <c r="N71" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="O71" s="84"/>
-      <c r="Q71" s="85" t="s">
+      <c r="O71" s="46"/>
+      <c r="Q71" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R71" s="85"/>
-      <c r="S71" s="85"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
     </row>
     <row r="72" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
@@ -8509,25 +8512,25 @@
       <c r="B72" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="80" t="s">
+      <c r="C72" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="80" t="s">
+      <c r="H72" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I72" s="81"/>
-      <c r="J72" s="82"/>
-      <c r="K72" s="86" t="s">
+      <c r="I72" s="43"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L72" s="88"/>
-      <c r="M72" s="88"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
       <c r="N72" s="14" t="s">
         <v>60</v>
       </c>
@@ -8537,10 +8540,10 @@
       <c r="Q72" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R72" s="73" t="s">
+      <c r="R72" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="S72" s="73"/>
+      <c r="S72" s="35"/>
     </row>
     <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
@@ -8549,33 +8552,45 @@
       <c r="B73" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
       <c r="G73" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H73" s="74" t="s">
+      <c r="H73" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I73" s="75"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="87"/>
-      <c r="L73" s="89"/>
-      <c r="M73" s="89"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="H70:J70"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -8591,25 +8606,13 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -8651,89 +8654,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="O3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="29"/>
       <c r="L4" s="30" t="s">
         <v>62</v>
@@ -8742,51 +8745,51 @@
       <c r="N4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61" t="s">
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="60" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -8794,14 +8797,14 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="60"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
@@ -8826,7 +8829,7 @@
       <c r="P6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="4" t="s">
         <v>22</v>
       </c>
@@ -10246,20 +10249,20 @@
       <c r="B79" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="67" t="s">
+      <c r="C79" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="69"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="56"/>
       <c r="G79" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="67" t="s">
+      <c r="H79" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="68"/>
-      <c r="J79" s="69"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="7" t="s">
         <v>51</v>
       </c>
@@ -10283,31 +10286,31 @@
       <c r="B80" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="70" t="s">
+      <c r="C80" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="70" t="s">
+      <c r="H80" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I80" s="71"/>
-      <c r="J80" s="72"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="59"/>
       <c r="K80" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L80" s="11"/>
       <c r="M80" s="13"/>
-      <c r="N80" s="90"/>
-      <c r="O80" s="77"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="39"/>
       <c r="P80" s="12"/>
-      <c r="Q80" s="77"/>
-      <c r="R80" s="77"/>
-      <c r="S80" s="77"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
     </row>
     <row r="81" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
@@ -10316,34 +10319,34 @@
       <c r="B81" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H81" s="80" t="s">
+      <c r="H81" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I81" s="81"/>
-      <c r="J81" s="82"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="44"/>
       <c r="K81" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
-      <c r="N81" s="83" t="s">
+      <c r="N81" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="O81" s="84"/>
-      <c r="Q81" s="85" t="s">
+      <c r="O81" s="46"/>
+      <c r="Q81" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R81" s="85"/>
-      <c r="S81" s="85"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="47"/>
     </row>
     <row r="82" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
@@ -10352,25 +10355,25 @@
       <c r="B82" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="80" t="s">
+      <c r="C82" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="81"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="81"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
       <c r="G82" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H82" s="80" t="s">
+      <c r="H82" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I82" s="81"/>
-      <c r="J82" s="82"/>
-      <c r="K82" s="86" t="s">
+      <c r="I82" s="43"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L82" s="88"/>
-      <c r="M82" s="88"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
       <c r="N82" s="14" t="s">
         <v>60</v>
       </c>
@@ -10380,10 +10383,10 @@
       <c r="Q82" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R82" s="73" t="s">
+      <c r="R82" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="S82" s="73"/>
+      <c r="S82" s="35"/>
     </row>
     <row r="83" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
@@ -10392,33 +10395,45 @@
       <c r="B83" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
       <c r="G83" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H83" s="74" t="s">
+      <c r="H83" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I83" s="75"/>
-      <c r="J83" s="76"/>
-      <c r="K83" s="87"/>
-      <c r="L83" s="89"/>
-      <c r="M83" s="89"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="H80:J80"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -10434,25 +10449,13 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
